--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1282.019673666667</v>
+        <v>1435.028035333333</v>
       </c>
       <c r="H2">
-        <v>3846.059021</v>
+        <v>4305.084106</v>
       </c>
       <c r="I2">
-        <v>0.215150111574635</v>
+        <v>0.3003423969824614</v>
       </c>
       <c r="J2">
-        <v>0.215150111574635</v>
+        <v>0.3003423969824615</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03886266666666667</v>
+        <v>0.09976533333333333</v>
       </c>
       <c r="N2">
-        <v>0.116588</v>
+        <v>0.299296</v>
       </c>
       <c r="O2">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="P2">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="Q2">
-        <v>49.82270323781645</v>
+        <v>143.1660502877085</v>
       </c>
       <c r="R2">
-        <v>448.4043291403481</v>
+        <v>1288.494452589376</v>
       </c>
       <c r="S2">
-        <v>0.02124693687754728</v>
+        <v>0.1735852166883192</v>
       </c>
       <c r="T2">
-        <v>0.02124693687754728</v>
+        <v>0.1735852166883192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1282.019673666667</v>
+        <v>1435.028035333333</v>
       </c>
       <c r="H3">
-        <v>3846.059021</v>
+        <v>4305.084106</v>
       </c>
       <c r="I3">
-        <v>0.215150111574635</v>
+        <v>0.3003423969824614</v>
       </c>
       <c r="J3">
-        <v>0.215150111574635</v>
+        <v>0.3003423969824615</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.168191</v>
       </c>
       <c r="O3">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="P3">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="Q3">
-        <v>71.87472364455678</v>
+        <v>80.45293343024957</v>
       </c>
       <c r="R3">
-        <v>646.872512801011</v>
+        <v>724.076400872246</v>
       </c>
       <c r="S3">
-        <v>0.03065104093364287</v>
+        <v>0.09754714790717248</v>
       </c>
       <c r="T3">
-        <v>0.03065104093364286</v>
+        <v>0.09754714790717249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1282.019673666667</v>
+        <v>1435.028035333333</v>
       </c>
       <c r="H4">
-        <v>3846.059021</v>
+        <v>4305.084106</v>
       </c>
       <c r="I4">
-        <v>0.215150111574635</v>
+        <v>0.3003423969824614</v>
       </c>
       <c r="J4">
-        <v>0.215150111574635</v>
+        <v>0.3003423969824615</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2986036666666667</v>
+        <v>0.016788</v>
       </c>
       <c r="N4">
-        <v>0.895811</v>
+        <v>0.050364</v>
       </c>
       <c r="O4">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="P4">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="Q4">
-        <v>382.8157752956701</v>
+        <v>24.091250657176</v>
       </c>
       <c r="R4">
-        <v>3445.341977661031</v>
+        <v>216.821255914584</v>
       </c>
       <c r="S4">
-        <v>0.1632521337634448</v>
+        <v>0.02921003238696978</v>
       </c>
       <c r="T4">
-        <v>0.1632521337634448</v>
+        <v>0.02921003238696979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>2049.145325</v>
       </c>
       <c r="I5">
-        <v>0.1146300259302213</v>
+        <v>0.1429577688896155</v>
       </c>
       <c r="J5">
-        <v>0.1146300259302213</v>
+        <v>0.1429577688896155</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03886266666666667</v>
+        <v>0.09976533333333333</v>
       </c>
       <c r="N5">
-        <v>0.116588</v>
+        <v>0.299296</v>
       </c>
       <c r="O5">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="P5">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="Q5">
-        <v>26.54508390567778</v>
+        <v>68.1445554656889</v>
       </c>
       <c r="R5">
-        <v>238.9057551511</v>
+        <v>613.3009991912</v>
       </c>
       <c r="S5">
-        <v>0.01132017505073958</v>
+        <v>0.08262355078504503</v>
       </c>
       <c r="T5">
-        <v>0.01132017505073958</v>
+        <v>0.08262355078504505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2049.145325</v>
       </c>
       <c r="I6">
-        <v>0.1146300259302213</v>
+        <v>0.1429577688896155</v>
       </c>
       <c r="J6">
-        <v>0.1146300259302213</v>
+        <v>0.1429577688896155</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.168191</v>
       </c>
       <c r="O6">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="P6">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="Q6">
         <v>38.29420015078612</v>
@@ -821,10 +821,10 @@
         <v>344.647801357075</v>
       </c>
       <c r="S6">
-        <v>0.01633059630458487</v>
+        <v>0.04643074959266916</v>
       </c>
       <c r="T6">
-        <v>0.01633059630458487</v>
+        <v>0.04643074959266917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>2049.145325</v>
       </c>
       <c r="I7">
-        <v>0.1146300259302213</v>
+        <v>0.1429577688896155</v>
       </c>
       <c r="J7">
-        <v>0.1146300259302213</v>
+        <v>0.1429577688896155</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2986036666666667</v>
+        <v>0.016788</v>
       </c>
       <c r="N7">
-        <v>0.895811</v>
+        <v>0.050364</v>
       </c>
       <c r="O7">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="P7">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="Q7">
-        <v>203.9607691926194</v>
+        <v>11.4670172387</v>
       </c>
       <c r="R7">
-        <v>1835.646922733575</v>
+        <v>103.2031551483</v>
       </c>
       <c r="S7">
-        <v>0.08697925457489687</v>
+        <v>0.01390346851190129</v>
       </c>
       <c r="T7">
-        <v>0.08697925457489686</v>
+        <v>0.01390346851190129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>218.5549926666667</v>
+        <v>247.7155763333333</v>
       </c>
       <c r="H8">
-        <v>655.664978</v>
+        <v>743.1467289999999</v>
       </c>
       <c r="I8">
-        <v>0.03667816650811625</v>
+        <v>0.05184532157837839</v>
       </c>
       <c r="J8">
-        <v>0.03667816650811625</v>
+        <v>0.05184532157837839</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03886266666666667</v>
+        <v>0.09976533333333333</v>
       </c>
       <c r="N8">
-        <v>0.116588</v>
+        <v>0.299296</v>
       </c>
       <c r="O8">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="P8">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="Q8">
-        <v>8.493629828340445</v>
+        <v>24.71342704475378</v>
       </c>
       <c r="R8">
-        <v>76.44266845506401</v>
+        <v>222.420843402784</v>
       </c>
       <c r="S8">
-        <v>0.003622116125706856</v>
+        <v>0.02996440552808112</v>
       </c>
       <c r="T8">
-        <v>0.003622116125706856</v>
+        <v>0.02996440552808113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>218.5549926666667</v>
+        <v>247.7155763333333</v>
       </c>
       <c r="H9">
-        <v>655.664978</v>
+        <v>743.1467289999999</v>
       </c>
       <c r="I9">
-        <v>0.03667816650811625</v>
+        <v>0.05184532157837839</v>
       </c>
       <c r="J9">
-        <v>0.03667816650811625</v>
+        <v>0.05184532157837839</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.168191</v>
       </c>
       <c r="O9">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="P9">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="Q9">
-        <v>12.25299425719978</v>
+        <v>13.88784349969322</v>
       </c>
       <c r="R9">
-        <v>110.276948314798</v>
+        <v>124.990591497239</v>
       </c>
       <c r="S9">
-        <v>0.005225300488032747</v>
+        <v>0.01683865915405984</v>
       </c>
       <c r="T9">
-        <v>0.005225300488032746</v>
+        <v>0.01683865915405984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>218.5549926666667</v>
+        <v>247.7155763333333</v>
       </c>
       <c r="H10">
-        <v>655.664978</v>
+        <v>743.1467289999999</v>
       </c>
       <c r="I10">
-        <v>0.03667816650811625</v>
+        <v>0.05184532157837839</v>
       </c>
       <c r="J10">
-        <v>0.03667816650811625</v>
+        <v>0.05184532157837839</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2986036666666667</v>
+        <v>0.016788</v>
       </c>
       <c r="N10">
-        <v>0.895811</v>
+        <v>0.050364</v>
       </c>
       <c r="O10">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="P10">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="Q10">
-        <v>65.26132217857311</v>
+        <v>4.158649095484</v>
       </c>
       <c r="R10">
-        <v>587.3518996071581</v>
+        <v>37.42784185935599</v>
       </c>
       <c r="S10">
-        <v>0.02783074989437664</v>
+        <v>0.00504225689623743</v>
       </c>
       <c r="T10">
-        <v>0.02783074989437664</v>
+        <v>0.005042256896237431</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3775.098755</v>
+        <v>2412.181518666667</v>
       </c>
       <c r="H11">
-        <v>11325.296265</v>
+        <v>7236.544556000001</v>
       </c>
       <c r="I11">
-        <v>0.6335416959870275</v>
+        <v>0.5048545125495446</v>
       </c>
       <c r="J11">
-        <v>0.6335416959870274</v>
+        <v>0.5048545125495447</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.03886266666666667</v>
+        <v>0.09976533333333333</v>
       </c>
       <c r="N11">
-        <v>0.116588</v>
+        <v>0.299296</v>
       </c>
       <c r="O11">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="P11">
-        <v>0.09875401282409643</v>
+        <v>0.5779577523264414</v>
       </c>
       <c r="Q11">
-        <v>146.7104045493133</v>
+        <v>240.6520932702862</v>
       </c>
       <c r="R11">
-        <v>1320.39364094382</v>
+        <v>2165.868839432576</v>
       </c>
       <c r="S11">
-        <v>0.06256478477010272</v>
+        <v>0.291784579324996</v>
       </c>
       <c r="T11">
-        <v>0.0625647847701027</v>
+        <v>0.2917845793249961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3775.098755</v>
+        <v>2412.181518666667</v>
       </c>
       <c r="H12">
-        <v>11325.296265</v>
+        <v>7236.544556000001</v>
       </c>
       <c r="I12">
-        <v>0.6335416959870275</v>
+        <v>0.5048545125495446</v>
       </c>
       <c r="J12">
-        <v>0.6335416959870274</v>
+        <v>0.5048545125495447</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.168191</v>
       </c>
       <c r="O12">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="P12">
-        <v>0.142463514005709</v>
+        <v>0.3247864733292009</v>
       </c>
       <c r="Q12">
-        <v>211.6458782340683</v>
+        <v>135.2357406020218</v>
       </c>
       <c r="R12">
-        <v>1904.812904106615</v>
+        <v>1217.121665418196</v>
       </c>
       <c r="S12">
-        <v>0.09025657627944854</v>
+        <v>0.1639699166752994</v>
       </c>
       <c r="T12">
-        <v>0.09025657627944851</v>
+        <v>0.1639699166752994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3775.098755</v>
+        <v>2412.181518666667</v>
       </c>
       <c r="H13">
-        <v>11325.296265</v>
+        <v>7236.544556000001</v>
       </c>
       <c r="I13">
-        <v>0.6335416959870275</v>
+        <v>0.5048545125495446</v>
       </c>
       <c r="J13">
-        <v>0.6335416959870274</v>
+        <v>0.5048545125495447</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2986036666666667</v>
+        <v>0.016788</v>
       </c>
       <c r="N13">
-        <v>0.895811</v>
+        <v>0.050364</v>
       </c>
       <c r="O13">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="P13">
-        <v>0.7587824731701945</v>
+        <v>0.09725577434435775</v>
       </c>
       <c r="Q13">
-        <v>1127.258330271768</v>
+        <v>40.49570333537601</v>
       </c>
       <c r="R13">
-        <v>10145.32497244591</v>
+        <v>364.461330018384</v>
       </c>
       <c r="S13">
-        <v>0.4807203349374762</v>
+        <v>0.04910001654924924</v>
       </c>
       <c r="T13">
-        <v>0.4807203349374761</v>
+        <v>0.04910001654924925</v>
       </c>
     </row>
   </sheetData>
